--- a/observations/orbit_plans/mtp061/nomad_mtp061_plan.xlsx
+++ b/observations/orbit_plans/mtp061/nomad_mtp061_plan.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp061\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FD3FB3-AD70-435C-852E-9CFB352227E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1807,8 +1813,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,6 +1851,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1891,7 +1905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1923,9 +1937,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1957,6 +1989,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2132,14 +2182,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="H304" sqref="H304"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2180,7 +2235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2197,7 +2252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2220,7 +2275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2234,7 +2289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2260,7 +2315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2274,7 +2329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2297,7 +2352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2311,7 +2366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2337,7 +2392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2351,7 +2406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2365,7 +2420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2388,7 +2443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2405,7 +2460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2419,7 +2474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2442,7 +2497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2456,7 +2511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2482,7 +2537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2505,7 +2560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2519,7 +2574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2533,7 +2588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2559,7 +2614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2573,7 +2628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2587,7 +2642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2610,7 +2665,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
@@ -2624,7 +2679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2638,7 +2693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -2664,7 +2719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -2687,7 +2742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2701,7 +2756,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2715,7 +2770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2732,7 +2787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2746,7 +2801,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2760,7 +2815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2774,7 +2829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2791,7 +2846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2805,7 +2860,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2816,7 +2871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
@@ -2830,7 +2885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2847,7 +2902,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2861,7 +2916,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2875,7 +2930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2889,7 +2944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2906,7 +2961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2920,7 +2975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
@@ -2934,7 +2989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14</v>
       </c>
@@ -2948,7 +3003,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2965,7 +3020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14</v>
       </c>
@@ -2979,7 +3034,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
       </c>
@@ -2990,7 +3045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -3004,7 +3059,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3021,7 +3076,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14</v>
       </c>
@@ -3035,7 +3090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14</v>
       </c>
@@ -3049,7 +3104,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -3063,7 +3118,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3080,7 +3135,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
@@ -3094,7 +3149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
       </c>
@@ -3108,7 +3163,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14</v>
       </c>
@@ -3122,7 +3177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3139,7 +3194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3153,7 +3208,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14</v>
       </c>
@@ -3167,7 +3222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3181,7 +3236,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3198,7 +3253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14</v>
       </c>
@@ -3212,7 +3267,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3226,7 +3281,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14</v>
       </c>
@@ -3240,7 +3295,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3257,7 +3312,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14</v>
       </c>
@@ -3271,7 +3326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3285,7 +3340,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -3299,7 +3354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3316,7 +3371,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3330,7 +3385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>14</v>
       </c>
@@ -3344,7 +3399,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3358,7 +3413,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3375,7 +3430,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3389,7 +3444,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3403,7 +3458,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3417,7 +3472,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3434,7 +3489,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3448,7 +3503,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
@@ -3462,7 +3517,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>14</v>
       </c>
@@ -3476,7 +3531,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>14</v>
       </c>
@@ -3487,7 +3542,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3498,7 +3553,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>14</v>
       </c>
@@ -3512,7 +3567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3523,7 +3578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3534,7 +3589,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3548,7 +3603,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -3562,7 +3617,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3579,7 +3634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
@@ -3593,7 +3648,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -3607,7 +3662,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3621,7 +3676,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -3638,7 +3693,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3652,7 +3707,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14</v>
       </c>
@@ -3666,7 +3721,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14</v>
       </c>
@@ -3680,7 +3735,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -3697,7 +3752,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>14</v>
       </c>
@@ -3711,7 +3766,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14</v>
       </c>
@@ -3725,7 +3780,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>14</v>
       </c>
@@ -3739,7 +3794,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -3756,7 +3811,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>14</v>
       </c>
@@ -3770,7 +3825,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>14</v>
       </c>
@@ -3784,7 +3839,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
@@ -3798,7 +3853,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3815,7 +3870,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>14</v>
       </c>
@@ -3829,7 +3884,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>14</v>
       </c>
@@ -3843,7 +3898,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -3860,7 +3915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>14</v>
       </c>
@@ -3874,7 +3929,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>14</v>
       </c>
@@ -3888,7 +3943,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14</v>
       </c>
@@ -3902,7 +3957,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -3919,7 +3974,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>14</v>
       </c>
@@ -3933,7 +3988,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
@@ -3947,7 +4002,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14</v>
       </c>
@@ -3961,7 +4016,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3978,7 +4033,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>14</v>
       </c>
@@ -3992,7 +4047,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4006,7 +4061,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14</v>
       </c>
@@ -4020,7 +4075,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -4037,7 +4092,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4051,7 +4106,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14</v>
       </c>
@@ -4065,7 +4120,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14</v>
       </c>
@@ -4079,7 +4134,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4096,7 +4151,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4110,7 +4165,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4124,7 +4179,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -4141,7 +4196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>14</v>
       </c>
@@ -4155,7 +4210,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>14</v>
       </c>
@@ -4169,7 +4224,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>14</v>
       </c>
@@ -4183,7 +4238,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -4200,7 +4255,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>14</v>
       </c>
@@ -4214,7 +4269,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>14</v>
       </c>
@@ -4228,7 +4283,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4239,7 +4294,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14</v>
       </c>
@@ -4253,7 +4308,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -4270,7 +4325,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>14</v>
       </c>
@@ -4284,7 +4339,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4298,7 +4353,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4312,7 +4367,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -4329,7 +4384,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>14</v>
       </c>
@@ -4343,7 +4398,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>14</v>
       </c>
@@ -4357,7 +4412,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14</v>
       </c>
@@ -4371,7 +4426,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -4388,7 +4443,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>14</v>
       </c>
@@ -4402,7 +4457,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>14</v>
       </c>
@@ -4413,7 +4468,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>14</v>
       </c>
@@ -4427,7 +4482,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -4444,7 +4499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4467,7 +4522,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>14</v>
       </c>
@@ -4481,7 +4536,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>14</v>
       </c>
@@ -4495,7 +4550,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -4512,7 +4567,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>14</v>
       </c>
@@ -4526,7 +4581,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5</v>
       </c>
@@ -4549,7 +4604,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5</v>
       </c>
@@ -4572,7 +4627,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -4589,7 +4644,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>5</v>
       </c>
@@ -4612,7 +4667,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>14</v>
       </c>
@@ -4626,7 +4681,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>14</v>
       </c>
@@ -4637,7 +4692,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>14</v>
       </c>
@@ -4651,7 +4706,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5</v>
       </c>
@@ -4677,7 +4732,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>14</v>
       </c>
@@ -4691,7 +4746,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5</v>
       </c>
@@ -4714,7 +4769,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>14</v>
       </c>
@@ -4728,7 +4783,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>14</v>
       </c>
@@ -4739,7 +4794,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>14</v>
       </c>
@@ -4753,7 +4808,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -4779,7 +4834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>14</v>
       </c>
@@ -4793,7 +4848,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5</v>
       </c>
@@ -4819,7 +4874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>14</v>
       </c>
@@ -4833,7 +4888,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>14</v>
       </c>
@@ -4844,7 +4899,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>14</v>
       </c>
@@ -4858,7 +4913,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -4884,7 +4939,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4916,7 +4971,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>14</v>
       </c>
@@ -4930,7 +4985,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>14</v>
       </c>
@@ -4944,7 +4999,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -4961,7 +5016,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4993,7 +5048,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>14</v>
       </c>
@@ -5007,7 +5062,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5039,7 +5094,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3</v>
       </c>
@@ -5056,7 +5111,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5088,7 +5143,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -5120,7 +5175,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>14</v>
       </c>
@@ -5134,7 +5189,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -5169,7 +5224,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>14</v>
       </c>
@@ -5183,7 +5238,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -5206,7 +5261,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5241,7 +5296,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>14</v>
       </c>
@@ -5255,7 +5310,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>14</v>
       </c>
@@ -5269,7 +5324,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5301,7 +5356,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -5318,7 +5373,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5350,7 +5405,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5382,7 +5437,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>14</v>
       </c>
@@ -5396,7 +5451,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5431,7 +5486,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>14</v>
       </c>
@@ -5445,7 +5500,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5477,7 +5532,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>14</v>
       </c>
@@ -5491,7 +5546,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5517,7 +5572,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5549,7 +5604,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -5566,7 +5621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>14</v>
       </c>
@@ -5580,7 +5635,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5615,7 +5670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>14</v>
       </c>
@@ -5629,7 +5684,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5664,7 +5719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>14</v>
       </c>
@@ -5678,7 +5733,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5713,7 +5768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5745,7 +5800,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>14</v>
       </c>
@@ -5759,7 +5814,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5791,7 +5846,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>3</v>
       </c>
@@ -5808,7 +5863,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5840,7 +5895,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>14</v>
       </c>
@@ -5854,7 +5909,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5886,7 +5941,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
@@ -5903,7 +5958,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5935,7 +5990,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>14</v>
       </c>
@@ -5949,7 +6004,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5981,7 +6036,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -6016,7 +6071,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>14</v>
       </c>
@@ -6030,7 +6085,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6062,7 +6117,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>14</v>
       </c>
@@ -6076,7 +6131,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -6111,7 +6166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>14</v>
       </c>
@@ -6125,7 +6180,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -6160,7 +6215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>14</v>
       </c>
@@ -6174,7 +6229,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -6206,7 +6261,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>14</v>
       </c>
@@ -6220,7 +6275,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6255,7 +6310,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>14</v>
       </c>
@@ -6269,7 +6324,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6301,7 +6356,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>14</v>
       </c>
@@ -6315,7 +6370,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -6347,7 +6402,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>14</v>
       </c>
@@ -6358,7 +6413,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -6390,7 +6445,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3</v>
       </c>
@@ -6407,7 +6462,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -6439,7 +6494,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14</v>
       </c>
@@ -6453,7 +6508,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14</v>
       </c>
@@ -6467,7 +6522,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>28</v>
       </c>
@@ -6493,7 +6548,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -6516,7 +6571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14</v>
       </c>
@@ -6530,7 +6585,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -6562,7 +6617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>3</v>
       </c>
@@ -6579,7 +6634,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -6611,7 +6666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>47</v>
       </c>
@@ -6631,7 +6686,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -6663,7 +6718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>3</v>
       </c>
@@ -6680,7 +6735,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -6703,7 +6758,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>14</v>
       </c>
@@ -6717,7 +6772,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>28</v>
       </c>
@@ -6734,7 +6789,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -6757,7 +6812,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>14</v>
       </c>
@@ -6771,7 +6826,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -6803,7 +6858,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -6826,7 +6881,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>14</v>
       </c>
@@ -6837,7 +6892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>3</v>
       </c>
@@ -6854,7 +6909,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -6886,7 +6941,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>14</v>
       </c>
@@ -6900,7 +6955,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -6932,7 +6987,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>3</v>
       </c>
@@ -6949,7 +7004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>14</v>
       </c>
@@ -6963,7 +7018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -6980,7 +7035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7012,7 +7067,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -7044,7 +7099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>3</v>
       </c>
@@ -7061,7 +7116,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
@@ -7093,7 +7148,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>14</v>
       </c>
@@ -7107,7 +7162,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>3</v>
       </c>
@@ -7124,7 +7179,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7156,7 +7211,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7188,7 +7243,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>14</v>
       </c>
@@ -7202,7 +7257,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
@@ -7225,7 +7280,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>3</v>
       </c>
@@ -7242,7 +7297,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>14</v>
       </c>
@@ -7256,7 +7311,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
@@ -7288,7 +7343,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>14</v>
       </c>
@@ -7299,7 +7354,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1</v>
       </c>
@@ -7331,7 +7386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>3</v>
       </c>
@@ -7348,7 +7403,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
@@ -7380,7 +7435,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>14</v>
       </c>
@@ -7394,7 +7449,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
@@ -7429,7 +7484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>14</v>
       </c>
@@ -7443,7 +7498,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1</v>
       </c>
@@ -7478,7 +7533,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1</v>
       </c>
@@ -7510,7 +7565,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3</v>
       </c>
@@ -7527,7 +7582,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1</v>
       </c>
@@ -7559,7 +7614,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3</v>
       </c>
@@ -7576,7 +7631,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -7608,7 +7663,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3</v>
       </c>
@@ -7625,7 +7680,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1</v>
       </c>
@@ -7657,7 +7712,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1</v>
       </c>
@@ -7689,7 +7744,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>14</v>
       </c>
@@ -7703,7 +7758,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1</v>
       </c>
@@ -7738,7 +7793,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>14</v>
       </c>
@@ -7752,7 +7807,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -7784,7 +7839,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>47</v>
       </c>
@@ -7804,7 +7859,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1</v>
       </c>
@@ -7827,7 +7882,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>14</v>
       </c>
@@ -7841,7 +7896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1</v>
       </c>
@@ -7864,12 +7919,12 @@
         <v>531</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>3</v>
       </c>
       <c r="H303" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="I303" t="s">
         <v>8</v>
@@ -7881,7 +7936,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1</v>
       </c>
@@ -7913,7 +7968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
@@ -7945,7 +8000,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>14</v>
       </c>
@@ -7959,7 +8014,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1</v>
       </c>
@@ -7994,7 +8049,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>14</v>
       </c>
@@ -8008,7 +8063,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
@@ -8040,7 +8095,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14</v>
       </c>
@@ -8054,7 +8109,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>14</v>
       </c>
@@ -8068,7 +8123,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1</v>
       </c>
@@ -8103,7 +8158,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1</v>
       </c>
@@ -8126,7 +8181,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>14</v>
       </c>
@@ -8140,7 +8195,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>14</v>
       </c>
@@ -8154,7 +8209,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
@@ -8189,7 +8244,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>14</v>
       </c>
@@ -8203,7 +8258,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1</v>
       </c>
@@ -8235,7 +8290,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14</v>
       </c>
@@ -8249,7 +8304,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>14</v>
       </c>
@@ -8263,7 +8318,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1</v>
       </c>
@@ -8298,7 +8353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1</v>
       </c>
@@ -8330,7 +8385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>3</v>
       </c>
@@ -8347,7 +8402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1</v>
       </c>
@@ -8379,7 +8434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>3</v>
       </c>
@@ -8396,7 +8451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>14</v>
       </c>
@@ -8410,7 +8465,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1</v>
       </c>
@@ -8433,7 +8488,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
@@ -8465,7 +8520,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3</v>
       </c>
@@ -8482,7 +8537,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1</v>
       </c>
@@ -8514,7 +8569,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>14</v>
       </c>
@@ -8528,7 +8583,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>14</v>
       </c>
@@ -8542,7 +8597,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
@@ -8577,7 +8632,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1</v>
       </c>
@@ -8609,7 +8664,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>14</v>
       </c>
@@ -8623,7 +8678,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -8655,7 +8710,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3</v>
       </c>
@@ -8672,7 +8727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>14</v>
       </c>
@@ -8686,7 +8741,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1</v>
       </c>
@@ -8718,7 +8773,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>14</v>
       </c>
@@ -8732,7 +8787,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1</v>
       </c>
@@ -8764,7 +8819,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1</v>
       </c>
